--- a/excel/2-3.xlsx
+++ b/excel/2-3.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -488,22 +488,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
       </c>
       <c r="F2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
       </c>
       <c r="H2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -519,10 +519,10 @@
         <v>1</v>
       </c>
       <c r="D3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -531,10 +531,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
@@ -556,10 +556,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -578,7 +578,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
@@ -590,13 +590,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -606,13 +606,13 @@
         </is>
       </c>
       <c r="B6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
       </c>
       <c r="D6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
@@ -621,13 +621,13 @@
         <v>1</v>
       </c>
       <c r="G6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
       <c r="I6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -643,19 +643,19 @@
         <v>0</v>
       </c>
       <c r="D7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="b">
         <v>0</v>
@@ -668,22 +668,22 @@
         </is>
       </c>
       <c r="B8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="b">
         <v>0</v>
       </c>
       <c r="E8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
       </c>
       <c r="G8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" t="b">
         <v>1</v>
@@ -699,19 +699,19 @@
         </is>
       </c>
       <c r="B9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
       </c>
       <c r="E9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>

--- a/excel/2-3.xlsx
+++ b/excel/2-3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:Y25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,49 +436,129 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Andy3</t>
+          <t>Natania</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Jeffery3</t>
+          <t>Jodie</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Ethan3</t>
+          <t>Chelsea F</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>George3</t>
+          <t>Meihuan</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Yize3</t>
+          <t>Baicheng</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Ryan3</t>
+          <t>Belinda</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Cindy3</t>
+          <t>Hannah</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Luna3</t>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ZiYu</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Chelsey L</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Yihan</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Phoebe</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Jiayi</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Haranoosh</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Anna</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Sebastian</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Gia Huy</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Ritchel</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Peter</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Tommy</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Vicky</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Winnie</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Yuhan</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Cripps</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Andy3</t>
+          <t>Natania</t>
         </is>
       </c>
       <c r="B2" t="b">
@@ -497,19 +577,67 @@
         <v>0</v>
       </c>
       <c r="G2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="b">
+        <v>0</v>
+      </c>
+      <c r="R2" t="b">
+        <v>0</v>
+      </c>
+      <c r="S2" t="b">
+        <v>0</v>
+      </c>
+      <c r="T2" t="b">
+        <v>0</v>
+      </c>
+      <c r="U2" t="b">
+        <v>0</v>
+      </c>
+      <c r="V2" t="b">
+        <v>0</v>
+      </c>
+      <c r="W2" t="b">
+        <v>0</v>
+      </c>
+      <c r="X2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Jeffery3</t>
+          <t>Jodie</t>
         </is>
       </c>
       <c r="B3" t="b">
@@ -522,7 +650,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -531,16 +659,64 @@
         <v>0</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N3" t="b">
+        <v>0</v>
+      </c>
+      <c r="O3" t="b">
+        <v>0</v>
+      </c>
+      <c r="P3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="b">
+        <v>0</v>
+      </c>
+      <c r="R3" t="b">
+        <v>0</v>
+      </c>
+      <c r="S3" t="b">
+        <v>0</v>
+      </c>
+      <c r="T3" t="b">
+        <v>1</v>
+      </c>
+      <c r="U3" t="b">
+        <v>0</v>
+      </c>
+      <c r="V3" t="b">
+        <v>0</v>
+      </c>
+      <c r="W3" t="b">
+        <v>0</v>
+      </c>
+      <c r="X3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Ethan3</t>
+          <t>Chelsea F</t>
         </is>
       </c>
       <c r="B4" t="b">
@@ -556,29 +732,77 @@
         <v>0</v>
       </c>
       <c r="F4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
       </c>
       <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
+      </c>
+      <c r="L4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N4" t="b">
+        <v>1</v>
+      </c>
+      <c r="O4" t="b">
+        <v>0</v>
+      </c>
+      <c r="P4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="b">
+        <v>1</v>
+      </c>
+      <c r="R4" t="b">
+        <v>0</v>
+      </c>
+      <c r="S4" t="b">
+        <v>0</v>
+      </c>
+      <c r="T4" t="b">
+        <v>0</v>
+      </c>
+      <c r="U4" t="b">
+        <v>0</v>
+      </c>
+      <c r="V4" t="b">
+        <v>0</v>
+      </c>
+      <c r="W4" t="b">
+        <v>0</v>
+      </c>
+      <c r="X4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>George3</t>
+          <t>Meihuan</t>
         </is>
       </c>
       <c r="B5" t="b">
         <v>0</v>
       </c>
       <c r="C5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
@@ -590,19 +814,67 @@
         <v>0</v>
       </c>
       <c r="G5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
       <c r="I5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N5" t="b">
+        <v>0</v>
+      </c>
+      <c r="O5" t="b">
+        <v>0</v>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="b">
+        <v>0</v>
+      </c>
+      <c r="R5" t="b">
+        <v>0</v>
+      </c>
+      <c r="S5" t="b">
+        <v>0</v>
+      </c>
+      <c r="T5" t="b">
+        <v>0</v>
+      </c>
+      <c r="U5" t="b">
+        <v>0</v>
+      </c>
+      <c r="V5" t="b">
+        <v>1</v>
+      </c>
+      <c r="W5" t="b">
+        <v>0</v>
+      </c>
+      <c r="X5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Yize3</t>
+          <t>Baicheng</t>
         </is>
       </c>
       <c r="B6" t="b">
@@ -612,7 +884,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
@@ -627,26 +899,74 @@
         <v>0</v>
       </c>
       <c r="I6" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M6" t="b">
+        <v>0</v>
+      </c>
+      <c r="N6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O6" t="b">
+        <v>0</v>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="b">
+        <v>0</v>
+      </c>
+      <c r="R6" t="b">
+        <v>0</v>
+      </c>
+      <c r="S6" t="b">
+        <v>0</v>
+      </c>
+      <c r="T6" t="b">
+        <v>0</v>
+      </c>
+      <c r="U6" t="b">
+        <v>1</v>
+      </c>
+      <c r="V6" t="b">
+        <v>0</v>
+      </c>
+      <c r="W6" t="b">
+        <v>1</v>
+      </c>
+      <c r="X6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Ryan3</t>
+          <t>Belinda</t>
         </is>
       </c>
       <c r="B7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="b">
         <v>0</v>
       </c>
       <c r="D7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -658,20 +978,68 @@
         <v>0</v>
       </c>
       <c r="I7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
+      </c>
+      <c r="L7" t="b">
+        <v>0</v>
+      </c>
+      <c r="M7" t="b">
+        <v>1</v>
+      </c>
+      <c r="N7" t="b">
+        <v>0</v>
+      </c>
+      <c r="O7" t="b">
+        <v>0</v>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="b">
+        <v>0</v>
+      </c>
+      <c r="R7" t="b">
+        <v>0</v>
+      </c>
+      <c r="S7" t="b">
+        <v>0</v>
+      </c>
+      <c r="T7" t="b">
+        <v>0</v>
+      </c>
+      <c r="U7" t="b">
+        <v>0</v>
+      </c>
+      <c r="V7" t="b">
+        <v>0</v>
+      </c>
+      <c r="W7" t="b">
+        <v>0</v>
+      </c>
+      <c r="X7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cindy3</t>
+          <t>Hannah</t>
         </is>
       </c>
       <c r="B8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="b">
         <v>0</v>
@@ -689,17 +1057,65 @@
         <v>1</v>
       </c>
       <c r="I8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M8" t="b">
+        <v>0</v>
+      </c>
+      <c r="N8" t="b">
+        <v>0</v>
+      </c>
+      <c r="O8" t="b">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="b">
+        <v>0</v>
+      </c>
+      <c r="R8" t="b">
+        <v>0</v>
+      </c>
+      <c r="S8" t="b">
+        <v>0</v>
+      </c>
+      <c r="T8" t="b">
+        <v>0</v>
+      </c>
+      <c r="U8" t="b">
+        <v>0</v>
+      </c>
+      <c r="V8" t="b">
+        <v>0</v>
+      </c>
+      <c r="W8" t="b">
+        <v>0</v>
+      </c>
+      <c r="X8" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y8" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Luna3</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="B9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="b">
         <v>0</v>
@@ -708,10 +1124,10 @@
         <v>0</v>
       </c>
       <c r="E9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
@@ -720,6 +1136,1318 @@
         <v>0</v>
       </c>
       <c r="I9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T9" t="b">
+        <v>1</v>
+      </c>
+      <c r="U9" t="b">
+        <v>0</v>
+      </c>
+      <c r="V9" t="b">
+        <v>0</v>
+      </c>
+      <c r="W9" t="b">
+        <v>0</v>
+      </c>
+      <c r="X9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>ZiYu</t>
+        </is>
+      </c>
+      <c r="B10" t="b">
+        <v>0</v>
+      </c>
+      <c r="C10" t="b">
+        <v>0</v>
+      </c>
+      <c r="D10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" t="b">
+        <v>1</v>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
+      </c>
+      <c r="L10" t="b">
+        <v>1</v>
+      </c>
+      <c r="M10" t="b">
+        <v>0</v>
+      </c>
+      <c r="N10" t="b">
+        <v>1</v>
+      </c>
+      <c r="O10" t="b">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="b">
+        <v>0</v>
+      </c>
+      <c r="R10" t="b">
+        <v>0</v>
+      </c>
+      <c r="S10" t="b">
+        <v>0</v>
+      </c>
+      <c r="T10" t="b">
+        <v>0</v>
+      </c>
+      <c r="U10" t="b">
+        <v>0</v>
+      </c>
+      <c r="V10" t="b">
+        <v>0</v>
+      </c>
+      <c r="W10" t="b">
+        <v>0</v>
+      </c>
+      <c r="X10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Chelsey L</t>
+        </is>
+      </c>
+      <c r="B11" t="b">
+        <v>0</v>
+      </c>
+      <c r="C11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" t="b">
+        <v>0</v>
+      </c>
+      <c r="K11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L11" t="b">
+        <v>0</v>
+      </c>
+      <c r="M11" t="b">
+        <v>0</v>
+      </c>
+      <c r="N11" t="b">
+        <v>0</v>
+      </c>
+      <c r="O11" t="b">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="b">
+        <v>1</v>
+      </c>
+      <c r="R11" t="b">
+        <v>0</v>
+      </c>
+      <c r="S11" t="b">
+        <v>1</v>
+      </c>
+      <c r="T11" t="b">
+        <v>0</v>
+      </c>
+      <c r="U11" t="b">
+        <v>0</v>
+      </c>
+      <c r="V11" t="b">
+        <v>0</v>
+      </c>
+      <c r="W11" t="b">
+        <v>0</v>
+      </c>
+      <c r="X11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Yihan</t>
+        </is>
+      </c>
+      <c r="B12" t="b">
+        <v>0</v>
+      </c>
+      <c r="C12" t="b">
+        <v>1</v>
+      </c>
+      <c r="D12" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" t="b">
+        <v>1</v>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
+      </c>
+      <c r="L12" t="b">
+        <v>1</v>
+      </c>
+      <c r="M12" t="b">
+        <v>0</v>
+      </c>
+      <c r="N12" t="b">
+        <v>0</v>
+      </c>
+      <c r="O12" t="b">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="b">
+        <v>0</v>
+      </c>
+      <c r="R12" t="b">
+        <v>0</v>
+      </c>
+      <c r="S12" t="b">
+        <v>0</v>
+      </c>
+      <c r="T12" t="b">
+        <v>0</v>
+      </c>
+      <c r="U12" t="b">
+        <v>0</v>
+      </c>
+      <c r="V12" t="b">
+        <v>0</v>
+      </c>
+      <c r="W12" t="b">
+        <v>0</v>
+      </c>
+      <c r="X12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Phoebe</t>
+        </is>
+      </c>
+      <c r="B13" t="b">
+        <v>0</v>
+      </c>
+      <c r="C13" t="b">
+        <v>0</v>
+      </c>
+      <c r="D13" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
+      </c>
+      <c r="L13" t="b">
+        <v>0</v>
+      </c>
+      <c r="M13" t="b">
+        <v>1</v>
+      </c>
+      <c r="N13" t="b">
+        <v>0</v>
+      </c>
+      <c r="O13" t="b">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="b">
+        <v>0</v>
+      </c>
+      <c r="R13" t="b">
+        <v>0</v>
+      </c>
+      <c r="S13" t="b">
+        <v>0</v>
+      </c>
+      <c r="T13" t="b">
+        <v>0</v>
+      </c>
+      <c r="U13" t="b">
+        <v>0</v>
+      </c>
+      <c r="V13" t="b">
+        <v>0</v>
+      </c>
+      <c r="W13" t="b">
+        <v>0</v>
+      </c>
+      <c r="X13" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Jiayi</t>
+        </is>
+      </c>
+      <c r="B14" t="b">
+        <v>0</v>
+      </c>
+      <c r="C14" t="b">
+        <v>0</v>
+      </c>
+      <c r="D14" t="b">
+        <v>1</v>
+      </c>
+      <c r="E14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" t="b">
+        <v>1</v>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
+      </c>
+      <c r="L14" t="b">
+        <v>0</v>
+      </c>
+      <c r="M14" t="b">
+        <v>0</v>
+      </c>
+      <c r="N14" t="b">
+        <v>1</v>
+      </c>
+      <c r="O14" t="b">
+        <v>0</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="b">
+        <v>0</v>
+      </c>
+      <c r="R14" t="b">
+        <v>0</v>
+      </c>
+      <c r="S14" t="b">
+        <v>0</v>
+      </c>
+      <c r="T14" t="b">
+        <v>0</v>
+      </c>
+      <c r="U14" t="b">
+        <v>0</v>
+      </c>
+      <c r="V14" t="b">
+        <v>0</v>
+      </c>
+      <c r="W14" t="b">
+        <v>0</v>
+      </c>
+      <c r="X14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Haranoosh</t>
+        </is>
+      </c>
+      <c r="B15" t="b">
+        <v>0</v>
+      </c>
+      <c r="C15" t="b">
+        <v>0</v>
+      </c>
+      <c r="D15" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" t="b">
+        <v>0</v>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M15" t="b">
+        <v>0</v>
+      </c>
+      <c r="N15" t="b">
+        <v>0</v>
+      </c>
+      <c r="O15" t="b">
+        <v>1</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="b">
+        <v>0</v>
+      </c>
+      <c r="R15" t="b">
+        <v>1</v>
+      </c>
+      <c r="S15" t="b">
+        <v>0</v>
+      </c>
+      <c r="T15" t="b">
+        <v>0</v>
+      </c>
+      <c r="U15" t="b">
+        <v>0</v>
+      </c>
+      <c r="V15" t="b">
+        <v>1</v>
+      </c>
+      <c r="W15" t="b">
+        <v>0</v>
+      </c>
+      <c r="X15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Anna</t>
+        </is>
+      </c>
+      <c r="B16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C16" t="b">
+        <v>0</v>
+      </c>
+      <c r="D16" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16" t="b">
+        <v>1</v>
+      </c>
+      <c r="I16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" t="b">
+        <v>0</v>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
+      </c>
+      <c r="L16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M16" t="b">
+        <v>0</v>
+      </c>
+      <c r="N16" t="b">
+        <v>0</v>
+      </c>
+      <c r="O16" t="b">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="b">
+        <v>0</v>
+      </c>
+      <c r="R16" t="b">
+        <v>1</v>
+      </c>
+      <c r="S16" t="b">
+        <v>0</v>
+      </c>
+      <c r="T16" t="b">
+        <v>0</v>
+      </c>
+      <c r="U16" t="b">
+        <v>0</v>
+      </c>
+      <c r="V16" t="b">
+        <v>0</v>
+      </c>
+      <c r="W16" t="b">
+        <v>0</v>
+      </c>
+      <c r="X16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Sebastian</t>
+        </is>
+      </c>
+      <c r="B17" t="b">
+        <v>0</v>
+      </c>
+      <c r="C17" t="b">
+        <v>0</v>
+      </c>
+      <c r="D17" t="b">
+        <v>1</v>
+      </c>
+      <c r="E17" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" t="b">
+        <v>0</v>
+      </c>
+      <c r="K17" t="b">
+        <v>1</v>
+      </c>
+      <c r="L17" t="b">
+        <v>0</v>
+      </c>
+      <c r="M17" t="b">
+        <v>0</v>
+      </c>
+      <c r="N17" t="b">
+        <v>0</v>
+      </c>
+      <c r="O17" t="b">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="b">
+        <v>1</v>
+      </c>
+      <c r="R17" t="b">
+        <v>0</v>
+      </c>
+      <c r="S17" t="b">
+        <v>0</v>
+      </c>
+      <c r="T17" t="b">
+        <v>0</v>
+      </c>
+      <c r="U17" t="b">
+        <v>0</v>
+      </c>
+      <c r="V17" t="b">
+        <v>0</v>
+      </c>
+      <c r="W17" t="b">
+        <v>0</v>
+      </c>
+      <c r="X17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Gia Huy</t>
+        </is>
+      </c>
+      <c r="B18" t="b">
+        <v>0</v>
+      </c>
+      <c r="C18" t="b">
+        <v>0</v>
+      </c>
+      <c r="D18" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18" t="b">
+        <v>0</v>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" t="b">
+        <v>0</v>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
+      </c>
+      <c r="L18" t="b">
+        <v>0</v>
+      </c>
+      <c r="M18" t="b">
+        <v>0</v>
+      </c>
+      <c r="N18" t="b">
+        <v>0</v>
+      </c>
+      <c r="O18" t="b">
+        <v>1</v>
+      </c>
+      <c r="P18" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q18" t="b">
+        <v>0</v>
+      </c>
+      <c r="R18" t="b">
+        <v>1</v>
+      </c>
+      <c r="S18" t="b">
+        <v>0</v>
+      </c>
+      <c r="T18" t="b">
+        <v>0</v>
+      </c>
+      <c r="U18" t="b">
+        <v>0</v>
+      </c>
+      <c r="V18" t="b">
+        <v>0</v>
+      </c>
+      <c r="W18" t="b">
+        <v>0</v>
+      </c>
+      <c r="X18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Ritchel</t>
+        </is>
+      </c>
+      <c r="B19" t="b">
+        <v>0</v>
+      </c>
+      <c r="C19" t="b">
+        <v>0</v>
+      </c>
+      <c r="D19" t="b">
+        <v>0</v>
+      </c>
+      <c r="E19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19" t="b">
+        <v>0</v>
+      </c>
+      <c r="G19" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" t="b">
+        <v>0</v>
+      </c>
+      <c r="K19" t="b">
+        <v>1</v>
+      </c>
+      <c r="L19" t="b">
+        <v>0</v>
+      </c>
+      <c r="M19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N19" t="b">
+        <v>0</v>
+      </c>
+      <c r="O19" t="b">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="b">
+        <v>0</v>
+      </c>
+      <c r="R19" t="b">
+        <v>0</v>
+      </c>
+      <c r="S19" t="b">
+        <v>1</v>
+      </c>
+      <c r="T19" t="b">
+        <v>0</v>
+      </c>
+      <c r="U19" t="b">
+        <v>1</v>
+      </c>
+      <c r="V19" t="b">
+        <v>0</v>
+      </c>
+      <c r="W19" t="b">
+        <v>0</v>
+      </c>
+      <c r="X19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Peter</t>
+        </is>
+      </c>
+      <c r="B20" t="b">
+        <v>0</v>
+      </c>
+      <c r="C20" t="b">
+        <v>1</v>
+      </c>
+      <c r="D20" t="b">
+        <v>0</v>
+      </c>
+      <c r="E20" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20" t="b">
+        <v>0</v>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M20" t="b">
+        <v>0</v>
+      </c>
+      <c r="N20" t="b">
+        <v>0</v>
+      </c>
+      <c r="O20" t="b">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="b">
+        <v>0</v>
+      </c>
+      <c r="R20" t="b">
+        <v>0</v>
+      </c>
+      <c r="S20" t="b">
+        <v>0</v>
+      </c>
+      <c r="T20" t="b">
+        <v>1</v>
+      </c>
+      <c r="U20" t="b">
+        <v>0</v>
+      </c>
+      <c r="V20" t="b">
+        <v>0</v>
+      </c>
+      <c r="W20" t="b">
+        <v>0</v>
+      </c>
+      <c r="X20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>Tommy</t>
+        </is>
+      </c>
+      <c r="B21" t="b">
+        <v>0</v>
+      </c>
+      <c r="C21" t="b">
+        <v>0</v>
+      </c>
+      <c r="D21" t="b">
+        <v>0</v>
+      </c>
+      <c r="E21" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21" t="b">
+        <v>1</v>
+      </c>
+      <c r="G21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" t="b">
+        <v>0</v>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
+      </c>
+      <c r="L21" t="b">
+        <v>0</v>
+      </c>
+      <c r="M21" t="b">
+        <v>0</v>
+      </c>
+      <c r="N21" t="b">
+        <v>0</v>
+      </c>
+      <c r="O21" t="b">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="b">
+        <v>0</v>
+      </c>
+      <c r="R21" t="b">
+        <v>0</v>
+      </c>
+      <c r="S21" t="b">
+        <v>1</v>
+      </c>
+      <c r="T21" t="b">
+        <v>0</v>
+      </c>
+      <c r="U21" t="b">
+        <v>1</v>
+      </c>
+      <c r="V21" t="b">
+        <v>0</v>
+      </c>
+      <c r="W21" t="b">
+        <v>0</v>
+      </c>
+      <c r="X21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Vicky</t>
+        </is>
+      </c>
+      <c r="B22" t="b">
+        <v>0</v>
+      </c>
+      <c r="C22" t="b">
+        <v>0</v>
+      </c>
+      <c r="D22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E22" t="b">
+        <v>1</v>
+      </c>
+      <c r="F22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" t="b">
+        <v>0</v>
+      </c>
+      <c r="K22" t="b">
+        <v>0</v>
+      </c>
+      <c r="L22" t="b">
+        <v>0</v>
+      </c>
+      <c r="M22" t="b">
+        <v>0</v>
+      </c>
+      <c r="N22" t="b">
+        <v>0</v>
+      </c>
+      <c r="O22" t="b">
+        <v>1</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="b">
+        <v>0</v>
+      </c>
+      <c r="R22" t="b">
+        <v>0</v>
+      </c>
+      <c r="S22" t="b">
+        <v>0</v>
+      </c>
+      <c r="T22" t="b">
+        <v>0</v>
+      </c>
+      <c r="U22" t="b">
+        <v>0</v>
+      </c>
+      <c r="V22" t="b">
+        <v>1</v>
+      </c>
+      <c r="W22" t="b">
+        <v>0</v>
+      </c>
+      <c r="X22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>Winnie</t>
+        </is>
+      </c>
+      <c r="B23" t="b">
+        <v>0</v>
+      </c>
+      <c r="C23" t="b">
+        <v>0</v>
+      </c>
+      <c r="D23" t="b">
+        <v>0</v>
+      </c>
+      <c r="E23" t="b">
+        <v>0</v>
+      </c>
+      <c r="F23" t="b">
+        <v>1</v>
+      </c>
+      <c r="G23" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" t="b">
+        <v>0</v>
+      </c>
+      <c r="K23" t="b">
+        <v>0</v>
+      </c>
+      <c r="L23" t="b">
+        <v>0</v>
+      </c>
+      <c r="M23" t="b">
+        <v>0</v>
+      </c>
+      <c r="N23" t="b">
+        <v>0</v>
+      </c>
+      <c r="O23" t="b">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="b">
+        <v>0</v>
+      </c>
+      <c r="R23" t="b">
+        <v>0</v>
+      </c>
+      <c r="S23" t="b">
+        <v>0</v>
+      </c>
+      <c r="T23" t="b">
+        <v>0</v>
+      </c>
+      <c r="U23" t="b">
+        <v>0</v>
+      </c>
+      <c r="V23" t="b">
+        <v>0</v>
+      </c>
+      <c r="W23" t="b">
+        <v>1</v>
+      </c>
+      <c r="X23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>Yuhan</t>
+        </is>
+      </c>
+      <c r="B24" t="b">
+        <v>0</v>
+      </c>
+      <c r="C24" t="b">
+        <v>0</v>
+      </c>
+      <c r="D24" t="b">
+        <v>0</v>
+      </c>
+      <c r="E24" t="b">
+        <v>0</v>
+      </c>
+      <c r="F24" t="b">
+        <v>0</v>
+      </c>
+      <c r="G24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24" t="b">
+        <v>1</v>
+      </c>
+      <c r="I24" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" t="b">
+        <v>0</v>
+      </c>
+      <c r="K24" t="b">
+        <v>0</v>
+      </c>
+      <c r="L24" t="b">
+        <v>0</v>
+      </c>
+      <c r="M24" t="b">
+        <v>1</v>
+      </c>
+      <c r="N24" t="b">
+        <v>0</v>
+      </c>
+      <c r="O24" t="b">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="b">
+        <v>0</v>
+      </c>
+      <c r="R24" t="b">
+        <v>0</v>
+      </c>
+      <c r="S24" t="b">
+        <v>0</v>
+      </c>
+      <c r="T24" t="b">
+        <v>0</v>
+      </c>
+      <c r="U24" t="b">
+        <v>0</v>
+      </c>
+      <c r="V24" t="b">
+        <v>0</v>
+      </c>
+      <c r="W24" t="b">
+        <v>0</v>
+      </c>
+      <c r="X24" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Cripps</t>
+        </is>
+      </c>
+      <c r="B25" t="b">
+        <v>1</v>
+      </c>
+      <c r="C25" t="b">
+        <v>0</v>
+      </c>
+      <c r="D25" t="b">
+        <v>0</v>
+      </c>
+      <c r="E25" t="b">
+        <v>0</v>
+      </c>
+      <c r="F25" t="b">
+        <v>0</v>
+      </c>
+      <c r="G25" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" t="b">
+        <v>0</v>
+      </c>
+      <c r="K25" t="b">
+        <v>0</v>
+      </c>
+      <c r="L25" t="b">
+        <v>0</v>
+      </c>
+      <c r="M25" t="b">
+        <v>0</v>
+      </c>
+      <c r="N25" t="b">
+        <v>0</v>
+      </c>
+      <c r="O25" t="b">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="b">
+        <v>0</v>
+      </c>
+      <c r="R25" t="b">
+        <v>0</v>
+      </c>
+      <c r="S25" t="b">
+        <v>0</v>
+      </c>
+      <c r="T25" t="b">
+        <v>0</v>
+      </c>
+      <c r="U25" t="b">
+        <v>0</v>
+      </c>
+      <c r="V25" t="b">
+        <v>0</v>
+      </c>
+      <c r="W25" t="b">
+        <v>1</v>
+      </c>
+      <c r="X25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y25" t="b">
         <v>1</v>
       </c>
     </row>

--- a/excel/2-3.xlsx
+++ b/excel/2-3.xlsx
@@ -451,12 +451,12 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Meihuan</t>
+          <t>Vicky G</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Baicheng</t>
+          <t>Jerry</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -496,7 +496,7 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Jiayi</t>
+          <t>Emily</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -536,7 +536,7 @@
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>Vicky</t>
+          <t>Vicky Z</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
@@ -546,7 +546,7 @@
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>Yuhan</t>
+          <t>Fiona</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
@@ -577,7 +577,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2" t="b">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2" t="b">
         <v>0</v>
@@ -631,7 +631,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -671,7 +671,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3" t="b">
         <v>0</v>
@@ -695,19 +695,19 @@
         <v>0</v>
       </c>
       <c r="T3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U3" t="b">
         <v>0</v>
       </c>
       <c r="V3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W3" t="b">
         <v>0</v>
       </c>
       <c r="X3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y3" t="b">
         <v>0</v>
@@ -756,16 +756,16 @@
         <v>0</v>
       </c>
       <c r="N4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4" t="b">
         <v>0</v>
       </c>
       <c r="Q4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4" t="b">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X4" t="b">
         <v>0</v>
@@ -795,7 +795,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Meihuan</t>
+          <t>Vicky G</t>
         </is>
       </c>
       <c r="B5" t="b">
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="b">
         <v>0</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="M5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" t="b">
         <v>0</v>
@@ -841,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5" t="b">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W5" t="b">
         <v>0</v>
@@ -874,7 +874,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Baicheng</t>
+          <t>Jerry</t>
         </is>
       </c>
       <c r="B6" t="b">
@@ -923,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6" t="b">
         <v>0</v>
@@ -935,16 +935,16 @@
         <v>0</v>
       </c>
       <c r="U6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V6" t="b">
         <v>0</v>
       </c>
       <c r="W6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y6" t="b">
         <v>0</v>
@@ -957,7 +957,7 @@
         </is>
       </c>
       <c r="B7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="b">
         <v>0</v>
@@ -990,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="M7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7" t="b">
         <v>0</v>
@@ -1008,7 +1008,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7" t="b">
         <v>0</v>
@@ -1026,7 +1026,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -1078,10 +1078,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8" t="b">
         <v>0</v>
@@ -1090,7 +1090,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U8" t="b">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="b">
         <v>0</v>
@@ -1124,7 +1124,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
@@ -1166,13 +1166,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V9" t="b">
         <v>0</v>
@@ -1230,13 +1230,13 @@
         <v>0</v>
       </c>
       <c r="N10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10" t="b">
         <v>0</v>
       </c>
       <c r="P10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10" t="b">
         <v>0</v>
@@ -1273,7 +1273,7 @@
         </is>
       </c>
       <c r="B11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="b">
         <v>0</v>
@@ -1318,13 +1318,13 @@
         <v>0</v>
       </c>
       <c r="Q11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R11" t="b">
         <v>0</v>
       </c>
       <c r="S11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T11" t="b">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W11" t="b">
         <v>0</v>
@@ -1355,7 +1355,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="b">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S12" t="b">
         <v>0</v>
@@ -1440,13 +1440,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
@@ -1494,10 +1494,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="b">
         <v>0</v>
@@ -1506,17 +1506,17 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jiayi</t>
+          <t>Emily</t>
         </is>
       </c>
       <c r="B14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="b">
         <v>0</v>
       </c>
       <c r="D14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="b">
         <v>0</v>
@@ -1534,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" t="b">
         <v>0</v>
@@ -1567,7 +1567,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V14" t="b">
         <v>0</v>
@@ -1595,7 +1595,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
@@ -1637,7 +1637,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S15" t="b">
         <v>0</v>
@@ -1649,7 +1649,7 @@
         <v>0</v>
       </c>
       <c r="V15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W15" t="b">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -1677,7 +1677,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
@@ -1686,13 +1686,13 @@
         <v>0</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="b">
         <v>0</v>
       </c>
       <c r="J16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" t="b">
         <v>0</v>
@@ -1716,7 +1716,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S16" t="b">
         <v>0</v>
@@ -1753,19 +1753,19 @@
         <v>0</v>
       </c>
       <c r="D17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="b">
         <v>0</v>
       </c>
       <c r="F17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="b">
         <v>0</v>
@@ -1774,7 +1774,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" t="b">
         <v>0</v>
@@ -1856,7 +1856,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" t="b">
         <v>0</v>
@@ -1865,10 +1865,10 @@
         <v>0</v>
       </c>
       <c r="O18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="b">
         <v>0</v>
@@ -1880,7 +1880,7 @@
         <v>0</v>
       </c>
       <c r="T18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U18" t="b">
         <v>0</v>
@@ -1920,19 +1920,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
       <c r="I19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="b">
         <v>0</v>
       </c>
       <c r="K19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" t="b">
         <v>0</v>
@@ -1962,7 +1962,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V19" t="b">
         <v>0</v>
@@ -1987,7 +1987,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="b">
         <v>0</v>
@@ -2002,10 +2002,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="b">
         <v>0</v>
@@ -2032,7 +2032,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S20" t="b">
         <v>0</v>
@@ -2075,7 +2075,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
@@ -2084,7 +2084,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="b">
         <v>0</v>
@@ -2099,7 +2099,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O21" t="b">
         <v>0</v>
@@ -2114,7 +2114,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T21" t="b">
         <v>0</v>
@@ -2138,20 +2138,20 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Vicky</t>
+          <t>Vicky Z</t>
         </is>
       </c>
       <c r="B22" t="b">
         <v>0</v>
       </c>
       <c r="C22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
       </c>
       <c r="E22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" t="b">
         <v>0</v>
@@ -2169,7 +2169,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22" t="b">
         <v>0</v>
@@ -2181,7 +2181,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P22" t="b">
         <v>0</v>
@@ -2227,13 +2227,13 @@
         <v>0</v>
       </c>
       <c r="D23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
       </c>
       <c r="F23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
@@ -2254,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N23" t="b">
         <v>0</v>
@@ -2290,20 +2290,20 @@
         <v>0</v>
       </c>
       <c r="Y23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Yuhan</t>
+          <t>Fiona</t>
         </is>
       </c>
       <c r="B24" t="b">
         <v>0</v>
       </c>
       <c r="C24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="b">
         <v>0</v>
@@ -2312,13 +2312,13 @@
         <v>0</v>
       </c>
       <c r="F24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="b">
         <v>0</v>
@@ -2333,7 +2333,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N24" t="b">
         <v>0</v>
@@ -2379,7 +2379,7 @@
         </is>
       </c>
       <c r="B25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" t="b">
         <v>0</v>
@@ -2394,7 +2394,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -2418,7 +2418,7 @@
         <v>0</v>
       </c>
       <c r="O25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P25" t="b">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X25" t="b">
         <v>0</v>
